--- a/src/com/stock/tr_data/Indi_TR.xlsx
+++ b/src/com/stock/tr_data/Indi_TR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>일자</t>
   </si>
@@ -353,6 +353,10 @@
   </si>
   <si>
     <t>MULTI_CHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_INPUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,1202 +715,1279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="1"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="1" t="s">
+      <c r="C47" s="1"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="1" t="s">
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="1" t="s">
+      <c r="C51" s="1"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="1" t="s">
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="1" t="s">
+      <c r="C54" s="1"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="1"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="1" t="s">
+      <c r="C56" s="1"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="1"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="1"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="1"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="1" t="s">
+      <c r="C62" s="1"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="1" t="s">
+      <c r="C63" s="1"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="1" t="s">
+      <c r="C64" s="1"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="1" t="s">
+      <c r="C65" s="1"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="1" t="s">
+      <c r="C66" s="1"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="1"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="1"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="1" t="s">
+      <c r="C69" s="1"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="1" t="s">
+      <c r="C71" s="1"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="1" t="s">
+      <c r="C72" s="1"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="1" t="s">
+      <c r="C73" s="1"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="1" t="s">
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="1"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="1" t="s">
+      <c r="C76" s="1"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="1" t="s">
+      <c r="C77" s="1"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="1"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="1" t="s">
+      <c r="C82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="1" t="s">
+      <c r="C83" s="1"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="1" t="s">
+      <c r="C84" s="1"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="1" t="s">
+      <c r="C85" s="1"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="1" t="s">
+      <c r="C86" s="1"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="1" t="s">
+      <c r="C87" s="1"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="1" t="s">
+      <c r="C88" s="1"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="1" t="s">
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="1" t="s">
+      <c r="C90" s="1"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="1" t="s">
+      <c r="C91" s="1"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="1" t="s">
+      <c r="C92" s="1"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="F92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="1" t="s">
+      <c r="C93" s="1"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="1" t="s">
+      <c r="C94" s="1"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="1" t="s">
+      <c r="C95" s="1"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F95" s="2"/>
+      <c r="F95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/com/stock/tr_data/Indi_TR.xlsx
+++ b/src/com/stock/tr_data/Indi_TR.xlsx
@@ -9,10 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TR_1206" sheetId="1" r:id="rId1"/>
+    <sheet name="stock_mst" sheetId="2" r:id="rId2"/>
+    <sheet name="TR_1205" sheetId="3" r:id="rId3"/>
+    <sheet name="SABA101U1" sheetId="6" r:id="rId4"/>
+    <sheet name="TR_SCHART" sheetId="7" r:id="rId5"/>
+    <sheet name="SC" sheetId="8" r:id="rId6"/>
+    <sheet name="SK" sheetId="4" r:id="rId7"/>
+    <sheet name="SP" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="317">
   <si>
     <t>일자</t>
   </si>
@@ -358,13 +365,646 @@
   <si>
     <t>MULTI_INPUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준코드</t>
+  </si>
+  <si>
+    <t>장구분</t>
+  </si>
+  <si>
+    <t>종목명</t>
+  </si>
+  <si>
+    <t>KOSPI200 세부업종</t>
+  </si>
+  <si>
+    <t>결산월일</t>
+  </si>
+  <si>
+    <t>거래정지구분</t>
+  </si>
+  <si>
+    <t>관리구분</t>
+  </si>
+  <si>
+    <t>시장경보구분코드</t>
+  </si>
+  <si>
+    <t>락구분</t>
+  </si>
+  <si>
+    <t>불성실공시지정여부</t>
+  </si>
+  <si>
+    <t>증거금 구분</t>
+  </si>
+  <si>
+    <t>신용증거금 구분</t>
+  </si>
+  <si>
+    <t>ETF 구분자</t>
+  </si>
+  <si>
+    <t>소속구분</t>
+  </si>
+  <si>
+    <t>SINGLE_INPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일자</t>
+  </si>
+  <si>
+    <t>종료일자</t>
+  </si>
+  <si>
+    <t>언어구분</t>
+  </si>
+  <si>
+    <t>업종분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글업종명</t>
+  </si>
+  <si>
+    <t>개인매수</t>
+  </si>
+  <si>
+    <t>개인매도</t>
+  </si>
+  <si>
+    <t>개인순매수</t>
+  </si>
+  <si>
+    <t>외국인매수</t>
+  </si>
+  <si>
+    <t>외국인매도</t>
+  </si>
+  <si>
+    <t>외국인순매수</t>
+  </si>
+  <si>
+    <t>기관매수</t>
+  </si>
+  <si>
+    <t>기관매도</t>
+  </si>
+  <si>
+    <t>기관순매수</t>
+  </si>
+  <si>
+    <t>증권매수</t>
+  </si>
+  <si>
+    <t>증권매도</t>
+  </si>
+  <si>
+    <t>증권순매수</t>
+  </si>
+  <si>
+    <t>투신매수</t>
+  </si>
+  <si>
+    <t>투신매도</t>
+  </si>
+  <si>
+    <t>투신순매수</t>
+  </si>
+  <si>
+    <t>은행매수</t>
+  </si>
+  <si>
+    <t>은행매도</t>
+  </si>
+  <si>
+    <t>은행순매수</t>
+  </si>
+  <si>
+    <t>종금매수</t>
+  </si>
+  <si>
+    <t>종금매도</t>
+  </si>
+  <si>
+    <t>종금순매수</t>
+  </si>
+  <si>
+    <t>보험매수</t>
+  </si>
+  <si>
+    <t>보험매도</t>
+  </si>
+  <si>
+    <t>보험순매수</t>
+  </si>
+  <si>
+    <t>기금매수</t>
+  </si>
+  <si>
+    <t>기금매도</t>
+  </si>
+  <si>
+    <t>기금순매수</t>
+  </si>
+  <si>
+    <t>기타매수</t>
+  </si>
+  <si>
+    <t>기타매도</t>
+  </si>
+  <si>
+    <t>기타순매수</t>
+  </si>
+  <si>
+    <t>외국인기타매수</t>
+  </si>
+  <si>
+    <t>외국인기타매도</t>
+  </si>
+  <si>
+    <t>외국인기타순매수</t>
+  </si>
+  <si>
+    <t>외국인계매수</t>
+  </si>
+  <si>
+    <t>외국인계매도</t>
+  </si>
+  <si>
+    <t>외국인계순매수</t>
+  </si>
+  <si>
+    <t>국가매수거래대금</t>
+  </si>
+  <si>
+    <t>국가매도거래대금</t>
+  </si>
+  <si>
+    <t>국가순매수거래대금</t>
+  </si>
+  <si>
+    <t>체결시간</t>
+  </si>
+  <si>
+    <t>매도거래원번호1</t>
+  </si>
+  <si>
+    <t>매수거래원번호1</t>
+  </si>
+  <si>
+    <t>매도수량1</t>
+  </si>
+  <si>
+    <t>매수수량1</t>
+  </si>
+  <si>
+    <t>매도대금1</t>
+  </si>
+  <si>
+    <t>매수대금1</t>
+  </si>
+  <si>
+    <t>매도거래원번호2</t>
+  </si>
+  <si>
+    <t>매수거래원번호2</t>
+  </si>
+  <si>
+    <t>매도수량2</t>
+  </si>
+  <si>
+    <t>매수수량2</t>
+  </si>
+  <si>
+    <t>매도대금2</t>
+  </si>
+  <si>
+    <t>매수대금2</t>
+  </si>
+  <si>
+    <t>매도거래원번호3</t>
+  </si>
+  <si>
+    <t>매수거래원번호3</t>
+  </si>
+  <si>
+    <t>매도수량3</t>
+  </si>
+  <si>
+    <t>매수수량3</t>
+  </si>
+  <si>
+    <t>매도대금3</t>
+  </si>
+  <si>
+    <t>매수대금3</t>
+  </si>
+  <si>
+    <t>매도거래원번호4</t>
+  </si>
+  <si>
+    <t>매수거래원번호4</t>
+  </si>
+  <si>
+    <t>매도수량4</t>
+  </si>
+  <si>
+    <t>매수수량4</t>
+  </si>
+  <si>
+    <t>매도대금4</t>
+  </si>
+  <si>
+    <t>매수대금4</t>
+  </si>
+  <si>
+    <t>매도거래원번호5</t>
+  </si>
+  <si>
+    <t>매수거래원번호5</t>
+  </si>
+  <si>
+    <t>매도수량5</t>
+  </si>
+  <si>
+    <t>매수수량5</t>
+  </si>
+  <si>
+    <t>매도대금5</t>
+  </si>
+  <si>
+    <t>매수대금5</t>
+  </si>
+  <si>
+    <t>총매도수량</t>
+  </si>
+  <si>
+    <t>총매수수량</t>
+  </si>
+  <si>
+    <t>총매도대금</t>
+  </si>
+  <si>
+    <t>총매수대금</t>
+  </si>
+  <si>
+    <t>국내총매도수량</t>
+  </si>
+  <si>
+    <t>국내총매수수량</t>
+  </si>
+  <si>
+    <t>국내총매도대금</t>
+  </si>
+  <si>
+    <t>국내총매수대금</t>
+  </si>
+  <si>
+    <t>국내총순매수수량</t>
+  </si>
+  <si>
+    <t>국내총순매수대금</t>
+  </si>
+  <si>
+    <t>외국계총매도수량</t>
+  </si>
+  <si>
+    <t>외국계총매수수량</t>
+  </si>
+  <si>
+    <t>외국계총매도대금</t>
+  </si>
+  <si>
+    <t>외국계총매수대금</t>
+  </si>
+  <si>
+    <t>외국계순매수수량</t>
+  </si>
+  <si>
+    <t>외국계순매수대금</t>
+  </si>
+  <si>
+    <t>전체총매도수량</t>
+  </si>
+  <si>
+    <t>전체총매수수량</t>
+  </si>
+  <si>
+    <t>전체총매도대금</t>
+  </si>
+  <si>
+    <t>전체총매수대금</t>
+  </si>
+  <si>
+    <t>전체순매수수량</t>
+  </si>
+  <si>
+    <t>전체순매수대금</t>
+  </si>
+  <si>
+    <t>매도증가수량1</t>
+  </si>
+  <si>
+    <t>매수증가수량1</t>
+  </si>
+  <si>
+    <t>시간</t>
+  </si>
+  <si>
+    <t>차익매도호가잔량</t>
+  </si>
+  <si>
+    <t>차익매수호가잔량</t>
+  </si>
+  <si>
+    <t>비차익매도호가잔량</t>
+  </si>
+  <si>
+    <t>비차익매수호가잔량</t>
+  </si>
+  <si>
+    <t>차익매도호가수량</t>
+  </si>
+  <si>
+    <t>차익매수호가수량</t>
+  </si>
+  <si>
+    <t>비차익매도호가수량</t>
+  </si>
+  <si>
+    <t>비차익매수호가수량</t>
+  </si>
+  <si>
+    <t>매도위탁체결수량</t>
+  </si>
+  <si>
+    <t>매도자기체결수량</t>
+  </si>
+  <si>
+    <t>매수위탁체결수량</t>
+  </si>
+  <si>
+    <t>매수자기체결수량</t>
+  </si>
+  <si>
+    <t>매도위탁체결금액</t>
+  </si>
+  <si>
+    <t>매도자기체결금액</t>
+  </si>
+  <si>
+    <t>매수위탁체결금액</t>
+  </si>
+  <si>
+    <t>매수자기체결금액</t>
+  </si>
+  <si>
+    <t>매도사전공시수량</t>
+  </si>
+  <si>
+    <t>매수사전공시수량</t>
+  </si>
+  <si>
+    <t>매도공시사전정정수량</t>
+  </si>
+  <si>
+    <t>매수공시사전정정수량</t>
+  </si>
+  <si>
+    <t>사후공시매도수량</t>
+  </si>
+  <si>
+    <t>사후공시매수수량</t>
+  </si>
+  <si>
+    <t xml:space="preserve">차익매도위탁체결수량      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">차익매도자기체결수량      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">차익매수위탁체결수량      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">차익매수자기체결수량      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">비차익매도위탁체결수량    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">비차익매도자기체결수량    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">비차익매수위탁체결수량    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">비차익매수자기체결수량    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">차익매도위탁체결금액      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">차익매도자기체결금액      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">차익매수위탁체결금액      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">차익매수자기체결금액      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">비차익매도위탁체결금액    </t>
+  </si>
+  <si>
+    <t>매도증가수량2</t>
+  </si>
+  <si>
+    <t>매수증가수량2</t>
+  </si>
+  <si>
+    <t>매도증가수량3</t>
+  </si>
+  <si>
+    <t>매수증가수량3</t>
+  </si>
+  <si>
+    <t>매도증가수량4</t>
+  </si>
+  <si>
+    <t>매수증가수량4</t>
+  </si>
+  <si>
+    <t>매도증가수량5</t>
+  </si>
+  <si>
+    <t>매수증가수량5</t>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호</t>
+  </si>
+  <si>
+    <t>계좌상품</t>
+  </si>
+  <si>
+    <t>계좌비밀번호</t>
+  </si>
+  <si>
+    <t>계좌관리부점코드</t>
+  </si>
+  <si>
+    <t>시장거래구분</t>
+  </si>
+  <si>
+    <t>선물대용매도여부</t>
+  </si>
+  <si>
+    <t>신용거래구분</t>
+  </si>
+  <si>
+    <t>매도/매수 구분</t>
+  </si>
+  <si>
+    <t>종목코드</t>
+  </si>
+  <si>
+    <t>주문수량</t>
+  </si>
+  <si>
+    <t>주문가격</t>
+  </si>
+  <si>
+    <t>정규시간외구분코드</t>
+  </si>
+  <si>
+    <t>호가유형코드</t>
+  </si>
+  <si>
+    <t>주문조건코드</t>
+  </si>
+  <si>
+    <t>신용대출통합주문구분코드</t>
+  </si>
+  <si>
+    <t>신용대출일자</t>
+  </si>
+  <si>
+    <t>원주문번호</t>
+  </si>
+  <si>
+    <t>결과메시지 처리여부</t>
+  </si>
+  <si>
+    <t>SINGLE_INPUT_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE_INPUT_CHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+  </si>
+  <si>
+    <t>ORC 주문번호</t>
+  </si>
+  <si>
+    <t>Message구분</t>
+  </si>
+  <si>
+    <t>Message1</t>
+  </si>
+  <si>
+    <t>Message2</t>
+  </si>
+  <si>
+    <t>Message3</t>
+  </si>
+  <si>
+    <t>그래프종류</t>
+  </si>
+  <si>
+    <t>시간간격</t>
+  </si>
+  <si>
+    <t>조회갯수</t>
+  </si>
+  <si>
+    <t>종가</t>
+  </si>
+  <si>
+    <t>주가수정계수</t>
+  </si>
+  <si>
+    <t>거래량수정계수</t>
+  </si>
+  <si>
+    <t>단위거래량</t>
+  </si>
+  <si>
+    <t>단위거래대금</t>
+  </si>
+  <si>
+    <t>SINGLE_INPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재가</t>
+  </si>
+  <si>
+    <t>누적거래대금</t>
+  </si>
+  <si>
+    <t>단위체결량</t>
+  </si>
+  <si>
+    <t>시가시간</t>
+  </si>
+  <si>
+    <t>고가시간</t>
+  </si>
+  <si>
+    <t>저가시간</t>
+  </si>
+  <si>
+    <t>매매구분</t>
+  </si>
+  <si>
+    <t>호가체결구분</t>
+  </si>
+  <si>
+    <t>가중평균가</t>
+  </si>
+  <si>
+    <t>매도1호가</t>
+  </si>
+  <si>
+    <t>매수1호가</t>
+  </si>
+  <si>
+    <t>거래강도</t>
+  </si>
+  <si>
+    <t>매매구분별거래량</t>
+  </si>
+  <si>
+    <t>체결강도</t>
+  </si>
+  <si>
+    <t>체결매도매수구분</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,16 +1027,29 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -419,13 +1072,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +1114,27 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,1283 +1417,3880 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="1" t="s">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="1" t="s">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="1" t="s">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="1" t="s">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="1" t="s">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="1" t="s">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="1" t="s">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="1" t="s">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="1" t="s">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="1" t="s">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="1" t="s">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="1" t="s">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="1" t="s">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="1" t="s">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="1" t="s">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="1" t="s">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="1" t="s">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F72" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="1" t="s">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="1" t="s">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="1" t="s">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="1" t="s">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="1" t="s">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="1" t="s">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="1" t="s">
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="1" t="s">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="1" t="s">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="1" t="s">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="1" t="s">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="1" t="s">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="1" t="s">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="1" t="s">
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="1" t="s">
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="1" t="s">
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="1" t="s">
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="1" t="s">
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="H92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="1" t="s">
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="1" t="s">
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="1" t="s">
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G95" s="2"/>
+      <c r="H95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8"/>
+      <c r="G2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="G3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8"/>
+      <c r="G4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+      <c r="G5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B19" s="8">
+        <v>21</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E55" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E57" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E61" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E63" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E64" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E65" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E66" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/com/stock/tr_data/Indi_TR.xlsx
+++ b/src/com/stock/tr_data/Indi_TR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\OpenStock\src\com\stock\tr_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C65D96-4E08-41B8-942A-A904EE48697A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TR_1206" sheetId="1" r:id="rId1"/>
@@ -1003,7 +1004,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1416,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2913,7 +2914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,7 +3094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3508,7 +3509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3811,7 +3812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4019,11 +4020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E2" sqref="E2:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4078,10 +4079,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F2" t="b">
+      <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
@@ -4089,202 +4091,227 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F3" t="b">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F4" t="b">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F5" t="b">
+      <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="b">
+      <c r="H6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="b">
+      <c r="H7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F8" t="b">
+      <c r="H8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="b">
+      <c r="H9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F10" t="b">
+      <c r="H10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F11" t="b">
+      <c r="H11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" t="b">
+      <c r="H12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F13" t="b">
+      <c r="H13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="b">
+      <c r="H14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F15" t="b">
+      <c r="H15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="4" t="s">
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="4" t="s">
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="4" t="s">
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="4" t="s">
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="4" t="s">
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4"/>
+      <c r="G21" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="4" t="s">
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="4"/>
+      <c r="G22" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="4" t="s">
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="4" t="s">
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="4" t="s">
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="4"/>
+      <c r="G25" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="4" t="s">
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="4" t="s">
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F27" t="b">
+      <c r="H27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4296,11 +4323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4355,10 +4382,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F2" t="b">
+      <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
@@ -4368,546 +4396,610 @@
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F3" t="b">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F4" t="b">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F5" t="b">
+      <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F6" t="b">
+      <c r="H6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F7" t="b">
+      <c r="H7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F8" t="b">
+      <c r="H8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F9" t="b">
+      <c r="H9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F10" t="b">
+      <c r="H10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F11" t="b">
+      <c r="H11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F12" t="b">
+      <c r="H12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F13" t="b">
+      <c r="H13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F14" t="b">
+      <c r="H14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F15" t="b">
+      <c r="H15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="4" t="s">
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="4" t="s">
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4"/>
+      <c r="G21" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="4" t="s">
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="4"/>
+      <c r="G22" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="4" t="s">
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="4" t="s">
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="4" t="s">
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="4"/>
+      <c r="G25" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="4" t="s">
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="4" t="s">
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="4" t="s">
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="4"/>
+      <c r="G28" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="4" t="s">
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="4"/>
+      <c r="G29" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="4" t="s">
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="4"/>
+      <c r="G30" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="4" t="s">
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="4"/>
+      <c r="G31" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="4" t="s">
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="4"/>
+      <c r="G32" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="4" t="s">
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="4"/>
+      <c r="G33" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="4" t="s">
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="4"/>
+      <c r="G34" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="4" t="s">
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="4"/>
+      <c r="G35" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E36" s="4" t="s">
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="4"/>
+      <c r="G36" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="4" t="s">
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="4"/>
+      <c r="G37" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="4" t="s">
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="4"/>
+      <c r="G38" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E39" s="4" t="s">
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="4"/>
+      <c r="G39" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="4" t="s">
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="4"/>
+      <c r="G40" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="4" t="s">
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="4"/>
+      <c r="G41" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E42" s="4" t="s">
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="4"/>
+      <c r="G42" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E43" s="4" t="s">
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="4"/>
+      <c r="G43" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E44" s="4" t="s">
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="4"/>
+      <c r="G44" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E45" s="4" t="s">
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="4"/>
+      <c r="G45" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E46" s="4" t="s">
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="4"/>
+      <c r="G46" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E47" s="4" t="s">
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="4"/>
+      <c r="G47" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E48" s="4" t="s">
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="4"/>
+      <c r="G48" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E49" s="4" t="s">
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="4"/>
+      <c r="G49" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E50" s="4" t="s">
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="4"/>
+      <c r="G50" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E51" s="4" t="s">
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="4"/>
+      <c r="G51" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E52" s="4" t="s">
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="4"/>
+      <c r="G52" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E53" s="4" t="s">
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="4"/>
+      <c r="G53" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E54" s="4" t="s">
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="4"/>
+      <c r="G54" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E55" s="4" t="s">
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E55" s="4"/>
+      <c r="G55" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E56" s="4" t="s">
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="4"/>
+      <c r="G56" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E57" s="4" t="s">
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E57" s="4"/>
+      <c r="G57" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E58" s="4" t="s">
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="4"/>
+      <c r="G58" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="3" t="s">
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="3"/>
+      <c r="G59" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="4" t="s">
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="4"/>
+      <c r="G60" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E61" s="4" t="s">
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E61" s="4"/>
+      <c r="G61" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E62" s="4" t="s">
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="4"/>
+      <c r="G62" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E63" s="4" t="s">
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E63" s="4"/>
+      <c r="G63" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E64" s="4" t="s">
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E64" s="4"/>
+      <c r="G64" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E65" s="4" t="s">
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E65" s="4"/>
+      <c r="G65" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E66" s="4" t="s">
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E66" s="4"/>
+      <c r="G66" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F66" t="b">
+      <c r="H66" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4919,11 +5011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="E2" sqref="E2:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4978,314 +5070,353 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F2" t="b">
+      <c r="H2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F3" t="b">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
+      <c r="E4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F5" t="b">
+      <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F6" t="b">
+      <c r="H6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="4" t="s">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="4" t="s">
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F9" t="b">
+      <c r="H9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F10" t="b">
+      <c r="H10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="4" t="s">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="4" t="s">
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F13" t="b">
+      <c r="H13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F14" t="b">
+      <c r="H14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F15" t="b">
+      <c r="H15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="4" t="s">
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="4" t="s">
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="4" t="s">
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="4" t="s">
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="4" t="s">
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4"/>
+      <c r="G21" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="4" t="s">
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="4"/>
+      <c r="G22" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="4" t="s">
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="4" t="s">
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="4" t="s">
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="4"/>
+      <c r="G25" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="4" t="s">
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="4" t="s">
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="7" t="s">
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="7"/>
+      <c r="G28" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="7" t="s">
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="7"/>
+      <c r="G29" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="7" t="s">
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="7"/>
+      <c r="G30" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="7" t="s">
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="7"/>
+      <c r="G31" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="7" t="s">
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="7"/>
+      <c r="G32" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="7" t="s">
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="7"/>
+      <c r="G33" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="7" t="s">
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="7"/>
+      <c r="G34" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="7" t="s">
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="7"/>
+      <c r="G35" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E36" s="7" t="s">
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="7"/>
+      <c r="G36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="7" t="s">
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="7"/>
+      <c r="G37" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="7" t="s">
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="7"/>
+      <c r="G38" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E39" s="7" t="s">
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="7"/>
+      <c r="G39" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="7" t="s">
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="7"/>
+      <c r="G40" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F40" t="b">
+      <c r="H40" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/com/stock/tr_data/Indi_TR.xlsx
+++ b/src/com/stock/tr_data/Indi_TR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\OpenStock\src\com\stock\tr_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C65D96-4E08-41B8-942A-A904EE48697A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="TR_1206" sheetId="1" r:id="rId1"/>
@@ -1004,7 +1003,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1417,11 +1416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96:H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1672,7 +1671,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1687,7 +1686,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1702,7 +1701,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1762,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -1777,7 +1776,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -1792,7 +1791,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1852,7 +1851,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1867,7 +1866,7 @@
         <v>24</v>
       </c>
       <c r="H26" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1882,7 +1881,7 @@
         <v>25</v>
       </c>
       <c r="H27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1942,7 +1941,7 @@
         <v>29</v>
       </c>
       <c r="H31" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -1957,7 +1956,7 @@
         <v>30</v>
       </c>
       <c r="H32" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -1972,7 +1971,7 @@
         <v>31</v>
       </c>
       <c r="H33" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -2032,7 +2031,7 @@
         <v>35</v>
       </c>
       <c r="H37" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -2047,7 +2046,7 @@
         <v>36</v>
       </c>
       <c r="H38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2062,7 +2061,7 @@
         <v>37</v>
       </c>
       <c r="H39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2122,7 +2121,7 @@
         <v>41</v>
       </c>
       <c r="H43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -2137,7 +2136,7 @@
         <v>42</v>
       </c>
       <c r="H44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -2152,7 +2151,7 @@
         <v>43</v>
       </c>
       <c r="H45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -2212,7 +2211,7 @@
         <v>47</v>
       </c>
       <c r="H49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -2227,7 +2226,7 @@
         <v>48</v>
       </c>
       <c r="H50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -2242,7 +2241,7 @@
         <v>49</v>
       </c>
       <c r="H51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -2302,7 +2301,7 @@
         <v>53</v>
       </c>
       <c r="H55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -2317,7 +2316,7 @@
         <v>54</v>
       </c>
       <c r="H56" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -2332,7 +2331,7 @@
         <v>55</v>
       </c>
       <c r="H57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -2392,7 +2391,7 @@
         <v>59</v>
       </c>
       <c r="H61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -2407,7 +2406,7 @@
         <v>60</v>
       </c>
       <c r="H62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -2422,7 +2421,7 @@
         <v>61</v>
       </c>
       <c r="H63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -2482,7 +2481,7 @@
         <v>65</v>
       </c>
       <c r="H67" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -2497,7 +2496,7 @@
         <v>66</v>
       </c>
       <c r="H68" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -2512,7 +2511,7 @@
         <v>67</v>
       </c>
       <c r="H69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -2572,7 +2571,7 @@
         <v>71</v>
       </c>
       <c r="H73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="2"/>
     </row>
@@ -2587,7 +2586,7 @@
         <v>72</v>
       </c>
       <c r="H74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="2"/>
     </row>
@@ -2602,7 +2601,7 @@
         <v>73</v>
       </c>
       <c r="H75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="2"/>
     </row>
@@ -2662,7 +2661,7 @@
         <v>77</v>
       </c>
       <c r="H79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="2"/>
     </row>
@@ -2677,7 +2676,7 @@
         <v>78</v>
       </c>
       <c r="H80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="2"/>
     </row>
@@ -2692,7 +2691,7 @@
         <v>79</v>
       </c>
       <c r="H81" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="2"/>
     </row>
@@ -2752,7 +2751,7 @@
         <v>83</v>
       </c>
       <c r="H85" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" s="2"/>
     </row>
@@ -2767,7 +2766,7 @@
         <v>84</v>
       </c>
       <c r="H86" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="2"/>
     </row>
@@ -2782,7 +2781,7 @@
         <v>85</v>
       </c>
       <c r="H87" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="2"/>
     </row>
@@ -2842,7 +2841,7 @@
         <v>89</v>
       </c>
       <c r="H91" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -2857,7 +2856,7 @@
         <v>90</v>
       </c>
       <c r="H92" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="2"/>
     </row>
@@ -2872,7 +2871,7 @@
         <v>91</v>
       </c>
       <c r="H93" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="2"/>
     </row>
@@ -2906,6 +2905,12 @@
       </c>
       <c r="I95" s="2"/>
     </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H97" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2914,7 +2919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3094,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3509,7 +3514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3812,7 +3817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4020,10 +4025,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F27"/>
     </sheetView>
   </sheetViews>
@@ -4323,7 +4328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5011,7 +5016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/com/stock/tr_data/Indi_TR.xlsx
+++ b/src/com/stock/tr_data/Indi_TR.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TR_1206" sheetId="1" r:id="rId1"/>
     <sheet name="stock_mst" sheetId="2" r:id="rId2"/>
-    <sheet name="TR_1205" sheetId="3" r:id="rId3"/>
-    <sheet name="SABA101U1" sheetId="6" r:id="rId4"/>
-    <sheet name="TR_SCHART" sheetId="7" r:id="rId5"/>
-    <sheet name="SC" sheetId="8" r:id="rId6"/>
-    <sheet name="SK" sheetId="4" r:id="rId7"/>
-    <sheet name="SP" sheetId="5" r:id="rId8"/>
+    <sheet name="TR_1863" sheetId="9" r:id="rId3"/>
+    <sheet name="TR_1205" sheetId="3" r:id="rId4"/>
+    <sheet name="SABA101U1" sheetId="6" r:id="rId5"/>
+    <sheet name="TR_SCHART" sheetId="7" r:id="rId6"/>
+    <sheet name="SC" sheetId="8" r:id="rId7"/>
+    <sheet name="SK" sheetId="4" r:id="rId8"/>
+    <sheet name="SP" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="332">
   <si>
     <t>일자</t>
   </si>
@@ -998,6 +999,51 @@
   </si>
   <si>
     <t>체결매도매수구분</t>
+  </si>
+  <si>
+    <t>상하위 구분</t>
+  </si>
+  <si>
+    <t>등락율 시작</t>
+  </si>
+  <si>
+    <t>등락율 종료</t>
+  </si>
+  <si>
+    <t>거래량 이상</t>
+  </si>
+  <si>
+    <t>당일여부</t>
+  </si>
+  <si>
+    <t>입력일자</t>
+  </si>
+  <si>
+    <t>시가총액 시작</t>
+  </si>
+  <si>
+    <t>종목조건</t>
+  </si>
+  <si>
+    <t>순위</t>
+  </si>
+  <si>
+    <t>한글종목명</t>
+  </si>
+  <si>
+    <t>매도1호가 수량</t>
+  </si>
+  <si>
+    <t>매수1호가 수량</t>
+  </si>
+  <si>
+    <t>업종구분</t>
+  </si>
+  <si>
+    <t>상하한가 진입시간</t>
+  </si>
+  <si>
+    <t>시가총액</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,6 +1182,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1419,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96:H97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3100,6 +3152,1214 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="H16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3513,7 +4773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -3816,7 +5076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -4024,7 +5284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -4327,7 +5587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -5015,7 +6275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>

--- a/src/com/stock/tr_data/Indi_TR.xlsx
+++ b/src/com/stock/tr_data/Indi_TR.xlsx
@@ -14,13 +14,15 @@
   <sheets>
     <sheet name="TR_1206" sheetId="1" r:id="rId1"/>
     <sheet name="stock_mst" sheetId="2" r:id="rId2"/>
-    <sheet name="TR_1863" sheetId="9" r:id="rId3"/>
-    <sheet name="TR_1205" sheetId="3" r:id="rId4"/>
-    <sheet name="SABA101U1" sheetId="6" r:id="rId5"/>
-    <sheet name="TR_SCHART" sheetId="7" r:id="rId6"/>
-    <sheet name="SC" sheetId="8" r:id="rId7"/>
-    <sheet name="SK" sheetId="4" r:id="rId8"/>
-    <sheet name="SP" sheetId="5" r:id="rId9"/>
+    <sheet name="upjong_code_mst" sheetId="11" r:id="rId3"/>
+    <sheet name="upjong_mst" sheetId="10" r:id="rId4"/>
+    <sheet name="TR_1863" sheetId="9" r:id="rId5"/>
+    <sheet name="TR_1205" sheetId="3" r:id="rId6"/>
+    <sheet name="SABA101U1" sheetId="6" r:id="rId7"/>
+    <sheet name="TR_SCHART" sheetId="7" r:id="rId8"/>
+    <sheet name="SC" sheetId="8" r:id="rId9"/>
+    <sheet name="SK" sheetId="4" r:id="rId10"/>
+    <sheet name="SP" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="337">
   <si>
     <t>일자</t>
   </si>
@@ -1044,6 +1046,26 @@
   </si>
   <si>
     <t>시가총액</t>
+  </si>
+  <si>
+    <t>시장코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2970,12 +2992,1116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="4"/>
+      <c r="G60" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3152,9 +4278,262 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="G3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="G3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4358,7 +5737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
@@ -4773,7 +6152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -5076,7 +6455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -5284,7 +6663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -5585,1108 +6964,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="E3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="4"/>
-      <c r="G34" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E42" s="4"/>
-      <c r="G42" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E43" s="4"/>
-      <c r="G43" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E44" s="4"/>
-      <c r="G44" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E46" s="4"/>
-      <c r="G46" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E49" s="4"/>
-      <c r="G49" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E50" s="4"/>
-      <c r="G50" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E51" s="4"/>
-      <c r="G51" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E52" s="4"/>
-      <c r="G52" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E53" s="4"/>
-      <c r="G53" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E54" s="4"/>
-      <c r="G54" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E55" s="4"/>
-      <c r="G55" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E56" s="4"/>
-      <c r="G56" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E57" s="4"/>
-      <c r="G57" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E58" s="4"/>
-      <c r="G58" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="3"/>
-      <c r="G59" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="4"/>
-      <c r="G60" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E61" s="4"/>
-      <c r="G61" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E62" s="4"/>
-      <c r="G62" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E63" s="4"/>
-      <c r="G63" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E64" s="4"/>
-      <c r="G64" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E65" s="4"/>
-      <c r="G65" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E66" s="4"/>
-      <c r="G66" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="7"/>
-      <c r="G37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="7"/>
-      <c r="G38" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E39" s="7"/>
-      <c r="G39" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="7"/>
-      <c r="G40" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>